--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -672,16 +672,16 @@
         <v>6.84</v>
       </c>
       <c r="S2">
-        <v>0.6933333333333334</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T2">
         <v>37.97</v>
       </c>
       <c r="U2">
-        <v>137.9575</v>
+        <v>137.96</v>
       </c>
       <c r="V2">
-        <v>11.5125</v>
+        <v>11.51</v>
       </c>
       <c r="W2">
         <v>7.67</v>
@@ -723,7 +723,7 @@
         <v>616.33</v>
       </c>
       <c r="AJ2">
-        <v>137.9575</v>
+        <v>137.96</v>
       </c>
       <c r="AK2">
         <v>83.37</v>
@@ -797,7 +797,7 @@
         <v>10.26</v>
       </c>
       <c r="W3">
-        <v>18.35333333333333</v>
+        <v>18.35</v>
       </c>
       <c r="X3">
         <v>38.73</v>
@@ -898,7 +898,7 @@
         <v>8.82</v>
       </c>
       <c r="S4">
-        <v>0.6933333333333334</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T4">
         <v>63.83</v>
@@ -1136,7 +1136,7 @@
         <v>16.36</v>
       </c>
       <c r="W6">
-        <v>18.35333333333333</v>
+        <v>18.35</v>
       </c>
       <c r="X6">
         <v>38.12</v>
